--- a/data/clean/electricitypriceEU.xlsx
+++ b/data/clean/electricitypriceEU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryramirez/Ironhack/week_5/Mid-bootcamp-project/data/clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C293DC6-3985-A345-A69B-1D80CAE547A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA64E8-CCE1-5C42-83AF-908898DC87B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>Germany (until 1990 former territory of the FRG)</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
@@ -136,12 +133,6 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Kosovo (under United Nations Security Council Resolution 1244/99)</t>
-  </si>
-  <si>
     <t>Moldova</t>
   </si>
   <si>
@@ -182,6 +173,15 @@
   </si>
   <si>
     <t>GEO (Labels)</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,60 +637,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7">
         <v>0.29870000000000002</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6">
         <v>0.1348</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7">
         <v>0.2369</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6">
         <v>0.16719999999999999</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7">
         <v>0.23830000000000001</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6">
         <v>0.17480000000000001</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7">
         <v>0.13109999999999999</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6">
         <v>0.20669999999999999</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7">
         <v>0.1893</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6">
         <v>0.15310000000000001</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="7">
         <v>0.10970000000000001</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="6">
         <v>0.1671</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="7">
         <v>0.1123</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6">
         <v>0.1285</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="7">
         <v>0.1706</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="6">
         <v>0.1966</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="9">
         <v>0.14099999999999999</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="6">
         <v>0.22459999999999999</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="7">
         <v>0.1333</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="6">
         <v>0.1613</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="7">
         <v>0.15659999999999999</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6">
         <v>0.16120000000000001</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="7">
         <v>0.18909999999999999</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="6">
         <v>0.1545</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="7">
         <v>0.19159999999999999</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="6">
         <v>0.17510000000000001</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="7">
         <v>0.18870000000000001</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="6">
         <v>0.1024</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="7">
         <v>7.8100000000000003E-2</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="7">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="7">
         <v>7.0499999999999993E-2</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="6">
         <v>9.0399999999999994E-2</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B41" s="7">
         <v>8.6400000000000005E-2</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B42" s="6">
         <v>6.3299999999999995E-2</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B43" s="9">
         <v>0.10199999999999999</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B44" s="8">
         <v>4.1000000000000002E-2</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B45" s="7">
         <v>6.8500000000000005E-2</v>
